--- a/rest-db-kafka/src/test/resources/CreateProduct-Event.xlsx
+++ b/rest-db-kafka/src/test/resources/CreateProduct-Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-db-kafka\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elan\virtualan-software-ws\2022\feb-release\microservices-lowcode-testautomation\rest-db-kafka\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF2291-02D2-4B74-B768-9AE0D31AE7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150F91D2-69BF-4609-881E-04F506331068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductCreated-Event" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>AddifyVariables</t>
   </si>
   <si>
-    <t>ProtoBuffMessageType</t>
-  </si>
-  <si>
     <t>ProductCreated</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   <si>
     <t>productId_,productName_,productDesc_
 i~[productId],Dell Inspiron 3583 15,Laptop Intel Celeron – 128GB SSD – 4GB DDR4 – 1.6GHz - Intel UHD Graphics 610 - Windows 10 Home in S Mode - Inspiron 15 3000 Series</t>
+  </si>
+  <si>
+    <t>ProtobufType</t>
   </si>
 </sst>
 </file>
@@ -464,28 +464,28 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.27734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85.71875" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.5703125" customWidth="1"/>
-    <col min="15" max="15" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" customWidth="1"/>
+    <col min="12" max="12" width="85.5546875" customWidth="1"/>
+    <col min="15" max="15" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,24 +535,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="93.6" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -560,11 +560,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>5</v>
@@ -579,18 +579,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -598,17 +598,17 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
